--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1185071.489945715</v>
+        <v>-1187639.690225082</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
         <v>327.7619254218788</v>
@@ -1388,7 +1388,7 @@
         <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412176</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26664558937171</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>117.1742031494877</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>249.344289543143</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
@@ -1534,19 +1534,19 @@
         <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>58.28902070198841</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>69.43130421103396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>102.601732567198</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
         <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
         <v>259.6018821377868</v>
@@ -1594,7 +1594,7 @@
         <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937171</v>
+        <v>26.24369876941329</v>
       </c>
       <c r="T14" t="n">
         <v>176.996853940816</v>
@@ -1664,16 +1664,16 @@
         <v>224.0740557600978</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>16.4611478343784</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>44.71574735661649</v>
       </c>
       <c r="E16" t="n">
         <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
         <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
         <v>69.43130421103396</v>
@@ -1825,10 +1825,10 @@
         <v>225.2165271250239</v>
       </c>
       <c r="W16" t="n">
-        <v>79.84285912458208</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6635371532907</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>308.837588846084</v>
       </c>
       <c r="C17" t="n">
         <v>291.376638953611</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032864</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9797929243148</v>
@@ -1859,7 +1859,7 @@
         <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699239</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.2915089707792</v>
+        <v>10.28708247572837</v>
       </c>
       <c r="T17" t="n">
         <v>130.0217173222235</v>
@@ -1904,10 +1904,10 @@
         <v>253.8560056527383</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>238.1410200111717</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
         <v>312.341685838657</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645407</v>
       </c>
       <c r="C19" t="n">
-        <v>93.3505682812312</v>
+        <v>93.35056828123122</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081573</v>
+        <v>74.71922020081574</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917254</v>
+        <v>72.53770982917256</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553462</v>
+        <v>71.52479520553463</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1295554416316</v>
+        <v>92.12955544163161</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692415</v>
+        <v>70.85876209692417</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244147</v>
+        <v>22.45616759244148</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0358998526507</v>
+        <v>15.03589985265072</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2879804958501</v>
+        <v>115.8727725140453</v>
       </c>
       <c r="T19" t="n">
         <v>145.6526964587726</v>
@@ -2062,10 +2062,10 @@
         <v>178.2413905064314</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191944</v>
+        <v>275.0419535009989</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716406</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346982</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>256.585833899454</v>
+        <v>308.837588846084</v>
       </c>
       <c r="C20" t="n">
         <v>291.376638953611</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7867888032864</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>308.0341172548652</v>
       </c>
       <c r="F20" t="n">
         <v>332.9797929243148</v>
@@ -2096,7 +2096,7 @@
         <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699239</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.2915089707792</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527383</v>
+        <v>97.91638104432739</v>
       </c>
       <c r="W20" t="n">
         <v>275.3447159000164</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,22 +2239,22 @@
         <v>105.9357273645407</v>
       </c>
       <c r="C22" t="n">
-        <v>93.3505682812312</v>
+        <v>93.35056828123122</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081573</v>
+        <v>74.71922020081574</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917254</v>
+        <v>72.53770982917256</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553462</v>
+        <v>71.52479520553463</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1295554416316</v>
+        <v>92.12955544163161</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692415</v>
+        <v>70.85876209692417</v>
       </c>
       <c r="I22" t="n">
         <v>22.45616759244147</v>
@@ -2287,13 +2287,13 @@
         <v>15.0358998526507</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2879804958501</v>
+        <v>115.8727725140453</v>
       </c>
       <c r="T22" t="n">
         <v>145.6526964587726</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882162</v>
+        <v>274.7307933700213</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064314</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191944</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716406</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346982</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8375888460839</v>
+        <v>308.837588846084</v>
       </c>
       <c r="C23" t="n">
         <v>291.376638953611</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032864</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0341172548651</v>
+        <v>308.0341172548652</v>
       </c>
       <c r="F23" t="n">
         <v>332.9797929243148</v>
@@ -2333,7 +2333,7 @@
         <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699239</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645407</v>
       </c>
       <c r="C25" t="n">
-        <v>93.3505682812312</v>
+        <v>93.35056828123122</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081573</v>
+        <v>137.1344281826206</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917254</v>
+        <v>72.53770982917256</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553462</v>
+        <v>71.52479520553463</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5447634234365</v>
+        <v>92.12955544163161</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692415</v>
+        <v>70.85876209692417</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244147</v>
+        <v>22.45616759244148</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0358998526507</v>
+        <v>15.03589985265072</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140453</v>
@@ -2539,7 +2539,7 @@
         <v>212.6267455191944</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716406</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346982</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046641740801</v>
+        <v>2140.012259920682</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046641740801</v>
+        <v>1798.242789645729</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799509</v>
+        <v>1467.170137704437</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>1108.574931771651</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425747</v>
+        <v>724.7820736475022</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7065222530299</v>
+        <v>336.9026701579575</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725592</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.77673900139</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="V11" t="n">
-        <v>3207.248040650094</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="W11" t="n">
-        <v>2881.672432045439</v>
+        <v>2738.14789024675</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.399720449817</v>
+        <v>2391.875178651129</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.453435139464</v>
+        <v>2140.012259920682</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
@@ -5118,13 +5118,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.4201055555391</v>
+        <v>541.8212659175274</v>
       </c>
       <c r="C13" t="n">
-        <v>697.6769692930909</v>
+        <v>400.0781296550792</v>
       </c>
       <c r="D13" t="n">
-        <v>574.753376546214</v>
+        <v>277.1545369082022</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8755778573366</v>
+        <v>277.1545369082022</v>
       </c>
       <c r="F13" t="n">
-        <v>396.178677024885</v>
+        <v>277.1545369082022</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650627</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="H13" t="n">
         <v>136.6447469483793</v>
@@ -5197,52 +5197,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159349</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>2036.871674678781</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1842.298105913766</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.896151324381</v>
+        <v>1580.388285704868</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.896151324381</v>
+        <v>1352.89684416444</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.672027952879</v>
+        <v>1090.672720792938</v>
       </c>
       <c r="X13" t="n">
-        <v>993.87552372032</v>
+        <v>889.8762165603798</v>
       </c>
       <c r="Y13" t="n">
-        <v>993.87552372032</v>
+        <v>696.2766840823084</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1752.132856431137</v>
+        <v>1884.42555828998</v>
       </c>
       <c r="C14" t="n">
-        <v>1410.363386156184</v>
+        <v>1542.656088015027</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.290734214892</v>
+        <v>1211.583436073736</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6955282821064</v>
+        <v>852.98823014095</v>
       </c>
       <c r="F14" t="n">
-        <v>336.9026701579575</v>
+        <v>469.1953720168012</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579575</v>
+        <v>81.31596852725598</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>81.31596852725598</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801726</v>
+        <v>3299.097034973401</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851406</v>
+        <v>3120.312334023081</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386068790701</v>
+        <v>2893.974903962377</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.386068790701</v>
+        <v>2590.105063284264</v>
       </c>
       <c r="W14" t="n">
-        <v>2820.758646735774</v>
+        <v>2590.105063284264</v>
       </c>
       <c r="X14" t="n">
-        <v>2474.485935140152</v>
+        <v>2243.832351688643</v>
       </c>
       <c r="Y14" t="n">
-        <v>2111.5396498298</v>
+        <v>2243.832351688643</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>662.5413128344612</v>
+        <v>681.7630463466111</v>
       </c>
       <c r="C16" t="n">
-        <v>520.7981765720131</v>
+        <v>681.7630463466111</v>
       </c>
       <c r="D16" t="n">
-        <v>397.874583825136</v>
+        <v>636.5956247742712</v>
       </c>
       <c r="E16" t="n">
-        <v>277.1545369082017</v>
+        <v>515.8755778573368</v>
       </c>
       <c r="F16" t="n">
-        <v>277.1545369082017</v>
+        <v>396.1786770248851</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6447469483793</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H16" t="n">
         <v>136.6447469483793</v>
@@ -5434,7 +5434,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
         <v>368.9257419016275</v>
@@ -5446,13 +5446,13 @@
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.509788383021</v>
@@ -5461,7 +5461,7 @@
         <v>2140.509788383021</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.016950875307</v>
+        <v>1976.016950875306</v>
       </c>
       <c r="T16" t="n">
         <v>1781.443382110291</v>
@@ -5473,13 +5473,13 @@
         <v>1292.042120360965</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.392767709872</v>
+        <v>1029.817996989463</v>
       </c>
       <c r="X16" t="n">
-        <v>1010.596263477314</v>
+        <v>1029.817996989463</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.9967309992422</v>
+        <v>836.2184645113921</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.314462232242</v>
+        <v>1544.16888924753</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905363</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912144</v>
+        <v>966.2260329274316</v>
       </c>
       <c r="E17" t="n">
-        <v>966.226032927432</v>
+        <v>966.2260329274316</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513564</v>
+        <v>629.8828077513559</v>
       </c>
       <c r="G17" t="n">
         <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749798</v>
+        <v>3315.214829209446</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747552</v>
+        <v>3183.8797612072</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73496763492</v>
+        <v>3004.991964094568</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904882</v>
+        <v>2748.571756364529</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.314759904882</v>
+        <v>2470.445780707947</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.768275045112</v>
+        <v>2171.622702060399</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.271622682832</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470838</v>
+        <v>569.1149231470839</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327088</v>
+        <v>474.8214198327089</v>
       </c>
       <c r="D19" t="n">
-        <v>399.347460033905</v>
+        <v>399.3474600339051</v>
       </c>
       <c r="E19" t="n">
         <v>326.0770460650439</v>
@@ -5665,10 +5665,10 @@
         <v>160.7696211689164</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030612</v>
+        <v>89.19511400030615</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.017901271825</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454883</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194059</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601704</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782751</v>
+        <v>975.6174791782753</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937897</v>
+        <v>822.2706078937898</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637916</v>
+        <v>676.1207083637917</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.691443239024</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.371605912144</v>
+        <v>1560.994624905363</v>
       </c>
       <c r="D20" t="n">
         <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274313</v>
+        <v>966.2260329274319</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513563</v>
       </c>
       <c r="G20" t="n">
         <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,16 +5762,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5780,22 @@
         <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73496763492</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904882</v>
+        <v>3059.717329349242</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.188784248299</v>
+        <v>2781.59135369266</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.365705600752</v>
+        <v>2482.768275045112</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869053238472</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470838</v>
+        <v>569.1149231470839</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327088</v>
+        <v>474.8214198327089</v>
       </c>
       <c r="D22" t="n">
-        <v>399.347460033905</v>
+        <v>399.3474600339051</v>
       </c>
       <c r="E22" t="n">
         <v>326.0770460650439</v>
@@ -5905,22 +5905,22 @@
         <v>89.19511400030612</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5935,10 +5935,10 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271825</v>
+        <v>1795.063565899912</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454883</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
         <v>1370.433778194059</v>
@@ -5947,13 +5947,13 @@
         <v>1190.391969601704</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782751</v>
+        <v>975.6174791782753</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937897</v>
+        <v>822.2706078937898</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637916</v>
+        <v>676.1207083637917</v>
       </c>
     </row>
     <row r="23">
@@ -5963,67 +5963,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875197</v>
+        <v>973.0913914875201</v>
       </c>
       <c r="F23" t="n">
-        <v>636.748166311444</v>
+        <v>636.7481663114445</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699732</v>
+        <v>296.3183957699733</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411444</v>
+        <v>916.9799380865974</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.320921580606</v>
+        <v>1368.014151335006</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.852826252531</v>
+        <v>1901.546056006931</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.631643311313</v>
+        <v>2448.324873065713</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.60411419065</v>
+        <v>2951.29734394505</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.378480547829</v>
+        <v>3361.570321301135</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613619</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
         <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.58268790933</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
         <v>2788.456712252748</v>
@@ -6032,7 +6032,7 @@
         <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.13698124292</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073442</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632368</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0171037759022</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293428998218</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352584</v>
+        <v>639.0259463352586</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208835</v>
+        <v>544.7324430208836</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220797</v>
+        <v>406.2128185939941</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532186</v>
+        <v>332.9424046251329</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7408013688402</v>
+        <v>260.6951367407545</v>
       </c>
       <c r="G25" t="n">
         <v>167.6349797290054</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039508</v>
+        <v>96.06047256039511</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227238</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365804</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361294</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549610496067</v>
@@ -6178,19 +6178,19 @@
         <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382233</v>
+        <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789878</v>
+        <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
         <v>1045.52850236645</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819643</v>
+        <v>892.1816310819645</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519661</v>
+        <v>746.0317315519663</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>347.6465910812759</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>1002.369923216575</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6254,22 +6254,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>347.646591081275</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1002.369923216575</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2410.244144161087</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257047</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913848</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415479</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398483</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668877</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2200.835586644152</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2747.614403702934</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3936.433794428084</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960315</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>282.5873354070219</v>
       </c>
       <c r="K35" t="n">
-        <v>875.9322461484389</v>
+        <v>937.3106675423214</v>
       </c>
       <c r="L35" t="n">
-        <v>1326.966459396848</v>
+        <v>1388.34488079073</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.516762226676</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7120,19 +7120,19 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398486</v>
@@ -7178,19 +7178,19 @@
         <v>924.7493799910142</v>
       </c>
       <c r="L38" t="n">
-        <v>1771.984857554751</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>2305.516762226675</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
         <v>3998.328778277655</v>
@@ -7199,25 +7199,25 @@
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7330,25 +7330,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960301</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.97243057225</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M41" t="n">
-        <v>1928.524582776558</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.303399835341</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960311</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973141</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,37 +7652,37 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.543307058812</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.445018788609</v>
+        <v>164.4450187886089</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592906</v>
+        <v>195.2094266592905</v>
       </c>
       <c r="L8" t="n">
-        <v>204.900048441919</v>
+        <v>204.9000484419188</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526776</v>
+        <v>196.0014531526774</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740268</v>
+        <v>194.5125490740266</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201053</v>
+        <v>197.1426452201051</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561907</v>
+        <v>203.1061824561906</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567226</v>
+        <v>201.1836244567225</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485205</v>
+        <v>116.9502528485204</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814158</v>
+        <v>120.9423422814157</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981497</v>
+        <v>115.8314587981495</v>
       </c>
       <c r="M9" t="n">
-        <v>115.617456907288</v>
+        <v>115.6174569072878</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775605</v>
+        <v>104.1233201775604</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951442</v>
+        <v>117.696733395144</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175961</v>
+        <v>113.990354617596</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.622964021339</v>
+        <v>126.6229640213389</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.840546321879</v>
+        <v>121.8405463218789</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274368</v>
+        <v>125.1725778274367</v>
       </c>
       <c r="N10" t="n">
         <v>114.2593588466753</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419909</v>
+        <v>126.0552829419908</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773783</v>
+        <v>127.1165875773782</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>127.4855845364173</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>15.65516262515797</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>78.40458911672863</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>400.203297288211</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>78.40458911672766</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>277.832108723647</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>105.7385611944694</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>62.52018570663782</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>12.68816924374474</v>
       </c>
       <c r="K35" t="n">
-        <v>105.7385611944695</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>400.2032972882099</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>343.5485285966304</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>287.0017854473915</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.9710754359417</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65581357412182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937165</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>183.656939121843</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>109.9725329141064</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.22382574577659</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.0110364712432</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.24617656543978</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250238</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>56.02294681995841</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>305.8587046842305</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>76.97860946279174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155167</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>179.7590230132048</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548652</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.00442649505085</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>57.69382784990069</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.25175494662999</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032863</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0989191415054</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>155.9396246084109</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>225300.9931471856</v>
       </c>
       <c r="C2" t="n">
-        <v>225301.3164471201</v>
+        <v>225301.31644712</v>
       </c>
       <c r="D2" t="n">
-        <v>225305.2747229237</v>
+        <v>225305.2747229236</v>
       </c>
       <c r="E2" t="n">
         <v>200623.971188562</v>
@@ -26326,31 +26326,31 @@
         <v>200623.971188562</v>
       </c>
       <c r="G2" t="n">
-        <v>218496.2729899924</v>
+        <v>218496.2729899923</v>
       </c>
       <c r="H2" t="n">
-        <v>218496.2729899924</v>
+        <v>218496.2729899923</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="J2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="K2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="L2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936375</v>
+        <v>38521.850159364</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015502</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>22820.53767071771</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.3482204904</v>
+        <v>25410.34822049038</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487399</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343055</v>
+        <v>422862.8573343054</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554742</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554743</v>
+        <v>38195.30988554742</v>
       </c>
       <c r="G4" t="n">
         <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400177</v>
+        <v>75223.10714400175</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157178</v>
+        <v>86759.13279157181</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409837</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058921</v>
+        <v>34688.26308058922</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911058</v>
+        <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911058</v>
+        <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
         <v>80518.72463949902</v>
@@ -26491,7 +26491,7 @@
         <v>85736.39714516663</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244600.4865720625</v>
+        <v>-244604.9001499307</v>
       </c>
       <c r="C6" t="n">
-        <v>-246992.8416149336</v>
+        <v>-246997.2522537115</v>
       </c>
       <c r="D6" t="n">
-        <v>-270767.6958513348</v>
+        <v>-270772.0705057873</v>
       </c>
       <c r="E6" t="n">
-        <v>-1020356.871591598</v>
+        <v>-1020585.621732726</v>
       </c>
       <c r="F6" t="n">
-        <v>85859.08942390404</v>
+        <v>85630.33928277566</v>
       </c>
       <c r="G6" t="n">
-        <v>25174.33191161758</v>
+        <v>25108.05724141132</v>
       </c>
       <c r="H6" t="n">
-        <v>62754.44120649157</v>
+        <v>62688.16653628533</v>
       </c>
       <c r="I6" t="n">
-        <v>30470.41910522197</v>
+        <v>30470.41910522188</v>
       </c>
       <c r="J6" t="n">
-        <v>28191.43531328315</v>
+        <v>28191.43531328312</v>
       </c>
       <c r="K6" t="n">
-        <v>53601.7835337735</v>
+        <v>53601.78353377356</v>
       </c>
       <c r="L6" t="n">
-        <v>16021.67423889952</v>
+        <v>16021.67423889958</v>
       </c>
       <c r="M6" t="n">
-        <v>-153586.7847582995</v>
+        <v>-153586.7847582994</v>
       </c>
       <c r="N6" t="n">
-        <v>53601.78353377347</v>
+        <v>53601.78353377344</v>
       </c>
       <c r="O6" t="n">
-        <v>53601.7835337735</v>
+        <v>53601.78353377356</v>
       </c>
       <c r="P6" t="n">
-        <v>53601.78353377356</v>
+        <v>53601.78353377359</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179876</v>
+        <v>48.65426975179903</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034048</v>
+        <v>917.2184374034049</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859249</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855644</v>
+        <v>44.98040685855672</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.1224308415</v>
+        <v>1041.122430841499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403307</v>
+        <v>202.9352112403306</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.793462874513</v>
+        <v>85.79346287451298</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805386</v>
+        <v>93.66019412805382</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28032,10 +28032,10 @@
         <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.1561595288082</v>
+        <v>87.15615952880816</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739125</v>
+        <v>12.07602350739119</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917277</v>
+        <v>78.81524851917273</v>
       </c>
       <c r="R10" t="n">
         <v>173.3484074723761</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880413</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880413</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="S19" t="n">
-        <v>11.4810448355918</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739663</v>
+        <v>11.48104483559206</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="S22" t="n">
-        <v>11.4810448355918</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739663</v>
+        <v>11.48104483559155</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739663</v>
+        <v>11.48104483559177</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="G25" t="n">
-        <v>11.48104483559177</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739663</v>
+        <v>73.89625281739661</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
         <v>46.97513661859261</v>
@@ -30423,7 +30423,7 @@
         <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859119</v>
       </c>
       <c r="R40" t="n">
         <v>46.97513661859261</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859348</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785878</v>
+        <v>0.1955950542785889</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630588</v>
+        <v>2.003137849630599</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075265</v>
+        <v>7.540678330075307</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807731</v>
+        <v>16.6008857380774</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568993</v>
+        <v>24.88042438569008</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806827</v>
+        <v>30.86636652806845</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459511</v>
+        <v>34.34478007459531</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256415</v>
+        <v>34.90051452256435</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158144</v>
+        <v>32.95556620158163</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1268132990788</v>
+        <v>28.12681329907896</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772687</v>
+        <v>21.12206541772699</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832735</v>
+        <v>12.28654782832742</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373324</v>
+        <v>4.45712229937335</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045186</v>
+        <v>0.8562173501045235</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228702</v>
+        <v>0.01564760434228711</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208502</v>
+        <v>0.1046525802208508</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711895</v>
+        <v>1.010723603711901</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902078</v>
+        <v>3.603169976902099</v>
       </c>
       <c r="J9" t="n">
-        <v>9.8873738181462</v>
+        <v>9.887373818146257</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294316</v>
+        <v>16.89909669294326</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172451</v>
+        <v>22.72292098172464</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473032</v>
+        <v>26.51657701473047</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577278</v>
+        <v>27.21839190577294</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930025</v>
+        <v>24.8995110493004</v>
       </c>
       <c r="P9" t="n">
-        <v>19.9840527967341</v>
+        <v>19.98405279673421</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468256</v>
+        <v>13.35881006468263</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589279</v>
+        <v>6.497640024589315</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347808</v>
+        <v>1.943875777347819</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971985</v>
+        <v>0.4218233386972009</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424356</v>
+        <v>0.006885038172424395</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914529</v>
+        <v>0.08773720774914578</v>
       </c>
       <c r="H10" t="n">
-        <v>0.780063537987856</v>
+        <v>0.7800635379878604</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310661</v>
+        <v>2.638497120310676</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864572</v>
+        <v>6.203020587864607</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849161</v>
+        <v>10.19346831849166</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935929</v>
+        <v>13.04412995935937</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016829</v>
+        <v>13.75320612016837</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855785</v>
+        <v>13.42618561855793</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985192</v>
+        <v>12.40125550985199</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176935</v>
+        <v>10.61141647176941</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521612</v>
+        <v>7.346794732521654</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793387</v>
+        <v>3.944983904793409</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773741</v>
+        <v>1.529020247773749</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827116</v>
+        <v>0.3748771603827137</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226113</v>
+        <v>0.00478566587722614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,13 +33500,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187041</v>
+        <v>72.49953281187035</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35811,7 +35811,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>583.0756989287495</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>414.4171488445298</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>269.1915900854412</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36604,13 +36604,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>952.5051327011225</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>269.1915900854402</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>830.1339441365585</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>613.7915620826885</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>122.1333842488626</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>203.4751702124573</v>
       </c>
       <c r="K35" t="n">
-        <v>442.92984774987</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37482,7 +37482,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>855.793411680542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>586.6502928476772</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165747</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629122</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>882.4696444268571</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38020,16 +38020,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>825.9229012776183</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>749.0240763241608</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564871</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
